--- a/test/performance/experiment-results-new.xlsx
+++ b/test/performance/experiment-results-new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260" activeTab="1"/>
+    <workbookView windowHeight="16760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="B22" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G7" sqref="G7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1469,7 +1469,7 @@
         <v>326.322158</v>
       </c>
       <c r="G7">
-        <v>1020.037233</v>
+        <v>407.161565</v>
       </c>
       <c r="H7">
         <v>58.846397</v>
@@ -1503,7 +1503,7 @@
         <v>361.494194</v>
       </c>
       <c r="G8">
-        <v>1066.391746</v>
+        <v>411.220331</v>
       </c>
       <c r="H8">
         <v>59.248334</v>
@@ -1537,7 +1537,7 @@
         <v>324.058228</v>
       </c>
       <c r="G9">
-        <v>1072.02731</v>
+        <v>423.252242</v>
       </c>
       <c r="H9">
         <v>54.366167</v>
@@ -1876,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1899,6 +1899,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1915,7 +1918,7 @@
     <row r="2" customFormat="1" ht="34" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2"/>
+      <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -1938,9 +1941,6 @@
     <row r="3" customFormat="1" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>337.29</v>
       </c>
       <c r="G5">
-        <v>1052.82</v>
+        <v>413.88</v>
       </c>
       <c r="H5">
         <v>57.49</v>
@@ -2248,7 +2248,6 @@
     <row r="23" ht="34" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23"/>
       <c r="D23" t="s">
         <v>4</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>337.29</v>
       </c>
       <c r="G26">
-        <v>1052.82</v>
+        <v>413.88</v>
       </c>
       <c r="H26">
         <v>57.49</v>
@@ -2475,7 +2474,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:G2"/>
@@ -2490,6 +2489,7 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/test/performance/experiment-results-new.xlsx
+++ b/test/performance/experiment-results-new.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" activeTab="1"/>
+    <workbookView windowWidth="31900" windowHeight="16760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="summarized" sheetId="2" r:id="rId2"/>
+    <sheet name="18-ops" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>Example</t>
   </si>
@@ -86,19 +87,198 @@
   <si>
     <t>code(Nunjuncks)</t>
   </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Loc(Temp)</t>
+  </si>
+  <si>
+    <t>Loc(gen)</t>
+  </si>
+  <si>
+    <t>metrics</t>
+  </si>
+  <si>
+    <t>Fwd</t>
+  </si>
+  <si>
+    <t>Bwd 2-ops</t>
+  </si>
+  <si>
+    <t>Bwd 4-ops</t>
+  </si>
+  <si>
+    <t>Bwd 6-ops</t>
+  </si>
+  <si>
+    <t>Bwd 8-ops</t>
+  </si>
+  <si>
+    <t>Bwd 10-ops</t>
+  </si>
+  <si>
+    <t>Bwd 12-ops</t>
+  </si>
+  <si>
+    <t>Bwd 14-ops</t>
+  </si>
+  <si>
+    <t>Bwd 16-ops</t>
+  </si>
+  <si>
+    <t>Bwd 18-ops</t>
+  </si>
+  <si>
+    <t>login.bit2</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>readme.bit2</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>main-v2.bit2</t>
+  </si>
+  <si>
+    <t>Freemarker</t>
+  </si>
+  <si>
+    <t>styleguide.bit2</t>
+  </si>
+  <si>
+    <t>Nunjucks</t>
+  </si>
+  <si>
+    <t>2-ops</t>
+  </si>
+  <si>
+    <t>4-ops</t>
+  </si>
+  <si>
+    <t>8-ops</t>
+  </si>
+  <si>
+    <t>10-ops</t>
+  </si>
+  <si>
+    <t>12-ops</t>
+  </si>
+  <si>
+    <t>14-ops</t>
+  </si>
+  <si>
+    <t>16-ops</t>
+  </si>
+  <si>
+    <t>18-ops</t>
+  </si>
+  <si>
+    <t>loc_g</t>
+  </si>
+  <si>
+    <t>FWD avg</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>1(2op)</t>
+  </si>
+  <si>
+    <t>1(4op)</t>
+  </si>
+  <si>
+    <t>1(6op)</t>
+  </si>
+  <si>
+    <t>2(8op)</t>
+  </si>
+  <si>
+    <t>2(10op)</t>
+  </si>
+  <si>
+    <t>4(12op)</t>
+  </si>
+  <si>
+    <t>4(14op)</t>
+  </si>
+  <si>
+    <t>8(16op)</t>
+  </si>
+  <si>
+    <t>32(2op)</t>
+  </si>
+  <si>
+    <t>64(4op)</t>
+  </si>
+  <si>
+    <t>192(6op)</t>
+  </si>
+  <si>
+    <t>256(18op)</t>
+  </si>
+  <si>
+    <t>256(8op)</t>
+  </si>
+  <si>
+    <t>768(16op)</t>
+  </si>
+  <si>
+    <t>768(12op)</t>
+  </si>
+  <si>
+    <t>768(14op)</t>
+  </si>
+  <si>
+    <t>768(10op)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.05"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -444,12 +624,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,139 +765,193 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,6 +1240,4518 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'18-ops'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'18-ops'!$D$25:$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'18-ops'!$D$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>96.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>565.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1161.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1610.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1867.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2604.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4406.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5481.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'18-ops'!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'18-ops'!$D$25:$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'18-ops'!$D$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>530.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>662.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>682.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>906.217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>787.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1286.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1446.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1528.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1551.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'18-ops'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'18-ops'!$D$25:$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'18-ops'!$D$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1067.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1960.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6611.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7959.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10761.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16310.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18355.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26150.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34377.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'18-ops'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'18-ops'!$D$25:$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'18-ops'!$D$29:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2935.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8543.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12198.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24536.718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54028.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60275.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67392.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141537.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="502923903"/>
+        <c:axId val="990878550"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="502923903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="990878550"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="990878550"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502923903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{b816220f-de72-4be2-b717-0041bef0a692}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'18-ops'!$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FWD avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'18-ops'!$D$47:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'18-ops'!$E$47:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="705511333"/>
+        <c:axId val="835990748"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="705511333"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="835990748"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="835990748"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705511333"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'18-ops'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'18-ops'!$D$25:$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'18-ops'!$D$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>96.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>565.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1161.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1610.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1867.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2604.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4406.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5481.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'18-ops'!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'18-ops'!$D$25:$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'18-ops'!$D$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>530.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>662.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>682.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>906.217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>787.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1286.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1446.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1528.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1551.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'18-ops'!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'18-ops'!$D$25:$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'18-ops'!$D$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1067.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1960.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6611.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7959.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10761.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16310.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18355.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26150.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34377.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="502923903"/>
+        <c:axId val="990878550"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="502923903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="990878550"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="990878550"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502923903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{b816220f-de72-4be2-b717-0041bef0a692}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'18-ops'!$C$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'18-ops'!$D$72:$U$72</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1(2op)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1(4op)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1(6op)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2(8op)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2(10op)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4(12op)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4(14op)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8(16op)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32(2op)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64(4op)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192(6op)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256(18op)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256(8op)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256(18op)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>768(16op)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>768(12op)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>768(14op)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>768(10op)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'18-ops'!$D$71:$U$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>582.171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>584.424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>590.065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>654.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1261.914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2746.107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2242.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5815.793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22301.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37812.939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67214.749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136322.758</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144154.566</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144968.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>161432.433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162188.549</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162940.624</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>172954.722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="400137130"/>
+        <c:axId val="645211572"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'18-ops'!$C$72</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>num</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'18-ops'!$D$72:$U$72</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>1(2op)</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1(4op)</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1(6op)</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2(8op)</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2(10op)</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4(12op)</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4(14op)</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8(16op)</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32(2op)</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>64(4op)</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>192(6op)</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>256(18op)</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>256(8op)</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>256(18op)</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>768(16op)</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>768(12op)</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>768(14op)</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>768(10op)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'18-ops'!$D$72:$U$72</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="400137130"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645211572"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="645211572"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400137130"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10055">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10199">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10055">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10055">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>885190</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5" descr="7b0a202020202263686172745265734964223a20223230343638363533220a7d0a"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10520045" y="5031105"/>
+        <a:ext cx="5533390" cy="3357880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500380</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>669290</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>71755</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4623435" y="8969375"/>
+        <a:ext cx="5680710" cy="2885440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>474345</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10" descr="7b0a202020202263686172745265734964223a20223230343638363533220a7d0a"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="18649950" y="5123180"/>
+        <a:ext cx="5533390" cy="3357880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12" descr="7b0a202020202263686172745265734964223a20223230343638363533220a7d0a"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6604000" y="15836900"/>
+        <a:ext cx="6348095" cy="3959860"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1238,13 +5999,745 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="WPS">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4874CB"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EE822F"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="F2BA02"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="75BD42"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="30C0B4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="E54C5E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0026E5"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="7E1FAD"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="WPS">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="WPS">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumOff val="17500"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-2520000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-4200000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+        </a:gradFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="phClr">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="WPS">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4874CB"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EE822F"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="F2BA02"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="75BD42"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="30C0B4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="E54C5E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0026E5"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="7E1FAD"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="WPS">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="WPS">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumOff val="17500"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-2520000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-4200000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+        </a:gradFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="phClr">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="WPS">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4874CB"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EE822F"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="F2BA02"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="75BD42"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="30C0B4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="E54C5E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0026E5"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="7E1FAD"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="WPS">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="WPS">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumOff val="17500"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-2520000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-4200000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+        </a:gradFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="phClr">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1262,53 +6755,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" ht="34" spans="1:14">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="19"/>
       <c r="N2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -1341,10 +6834,10 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="19">
         <v>22</v>
       </c>
       <c r="C4">
@@ -1379,8 +6872,8 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5">
         <v>4.695731</v>
       </c>
@@ -1413,8 +6906,8 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6">
         <v>4.877195</v>
       </c>
@@ -1450,10 +6943,10 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="19">
         <v>98</v>
       </c>
       <c r="C7">
@@ -1488,8 +6981,8 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8">
         <v>9.207653</v>
       </c>
@@ -1522,8 +7015,8 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9">
         <v>9.449012</v>
       </c>
@@ -1556,10 +7049,10 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="19">
         <v>75</v>
       </c>
       <c r="C10">
@@ -1591,8 +7084,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="19"/>
       <c r="C11">
         <v>7.463528</v>
       </c>
@@ -1622,8 +7115,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="19"/>
       <c r="C12">
         <v>7.725575</v>
       </c>
@@ -1653,10 +7146,10 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="19">
         <v>132</v>
       </c>
       <c r="C13">
@@ -1688,8 +7181,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14">
         <v>8.282757</v>
       </c>
@@ -1719,8 +7212,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15">
         <v>8.366628</v>
       </c>
@@ -1750,10 +7243,10 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="19">
         <v>63</v>
       </c>
       <c r="C16">
@@ -1785,8 +7278,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17">
         <v>7.612231</v>
       </c>
@@ -1816,8 +7309,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18">
         <v>7.090666</v>
       </c>
@@ -1876,8 +7369,8 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="121" zoomScaleNormal="121" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1893,54 +7386,54 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" customFormat="1" ht="34" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" customFormat="1" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +7460,7 @@
       </c>
     </row>
     <row r="4" customFormat="1" ht="17" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -2002,7 +7495,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" ht="17" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -2037,7 +7530,7 @@
       </c>
     </row>
     <row r="6" ht="34" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -2072,7 +7565,7 @@
       </c>
     </row>
     <row r="7" ht="17" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -2107,7 +7600,7 @@
       </c>
     </row>
     <row r="8" ht="17" spans="1:11">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B8">
@@ -2142,134 +7635,134 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" ht="34" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
+      <c r="I23" s="19"/>
+      <c r="J23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" t="s">
         <v>8</v>
       </c>
@@ -2299,7 +7792,7 @@
       </c>
     </row>
     <row r="25" ht="17" spans="1:11">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B25">
@@ -2334,7 +7827,7 @@
       </c>
     </row>
     <row r="26" ht="17" spans="1:11">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B26">
@@ -2369,7 +7862,7 @@
       </c>
     </row>
     <row r="27" ht="34" spans="1:11">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B27">
@@ -2404,7 +7897,7 @@
       </c>
     </row>
     <row r="28" ht="17" spans="1:11">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B28">
@@ -2439,7 +7932,7 @@
       </c>
     </row>
     <row r="29" ht="17" spans="1:11">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B29">
@@ -2494,4 +7987,1396 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:AL101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="R85" sqref="R85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="7.75961538461539" customWidth="1"/>
+    <col min="2" max="2" width="17.2307692307692" customWidth="1"/>
+    <col min="3" max="3" width="14.7403846153846" customWidth="1"/>
+    <col min="4" max="4" width="12.6730769230769" customWidth="1"/>
+    <col min="5" max="5" width="10.0288461538462" customWidth="1"/>
+    <col min="6" max="6" width="9.80769230769231" customWidth="1"/>
+    <col min="7" max="7" width="9.56730769230769" customWidth="1"/>
+    <col min="8" max="8" width="17.0865384615385" customWidth="1"/>
+    <col min="9" max="9" width="15.5673076923077" customWidth="1"/>
+    <col min="10" max="11" width="10.6346153846154" customWidth="1"/>
+    <col min="12" max="12" width="10.1634615384615" customWidth="1"/>
+    <col min="13" max="13" width="13.7692307692308" customWidth="1"/>
+    <col min="14" max="14" width="12.6538461538462" customWidth="1"/>
+    <col min="15" max="15" width="15.5384615384615" customWidth="1"/>
+    <col min="16" max="16" width="14.9423076923077" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="12.0769230769231" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="11.7115384615385" customWidth="1"/>
+    <col min="21" max="21" width="10.3942307692308" customWidth="1"/>
+    <col min="22" max="22" width="12.3076923076923" customWidth="1"/>
+    <col min="23" max="23" width="11.2403846153846" customWidth="1"/>
+    <col min="24" max="24" width="12.4230769230769" customWidth="1"/>
+    <col min="25" max="25" width="13.0288461538462" customWidth="1"/>
+    <col min="26" max="26" width="14.2307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="38:38">
+      <c r="AL2">
+        <f>MIN(U2:AK2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" ht="17" spans="2:18">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
+        <v>131</v>
+      </c>
+      <c r="F8" s="3">
+        <v>160</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.222</v>
+      </c>
+      <c r="I8" s="7">
+        <v>29.689</v>
+      </c>
+      <c r="J8" s="7">
+        <v>30.57</v>
+      </c>
+      <c r="K8" s="7">
+        <v>31.58</v>
+      </c>
+      <c r="L8" s="7">
+        <v>32.847</v>
+      </c>
+      <c r="M8" s="7">
+        <v>113.5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>64.219</v>
+      </c>
+      <c r="O8" s="7">
+        <v>91.54</v>
+      </c>
+      <c r="P8" s="7">
+        <v>680.996</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>5417.181</v>
+      </c>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="7">
+        <v>14.768</v>
+      </c>
+      <c r="I9" s="7">
+        <v>681.971</v>
+      </c>
+      <c r="J9" s="7">
+        <v>810.64</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2300.233</v>
+      </c>
+      <c r="L9" s="7">
+        <v>8078.74</v>
+      </c>
+      <c r="M9" s="7">
+        <v>8184.42</v>
+      </c>
+      <c r="N9" s="7">
+        <v>8122.547</v>
+      </c>
+      <c r="O9" s="7">
+        <v>8875.637</v>
+      </c>
+      <c r="P9" s="7">
+        <v>8263.789</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>5879.29</v>
+      </c>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.11</v>
+      </c>
+      <c r="I10" s="7">
+        <v>96.83</v>
+      </c>
+      <c r="J10" s="7">
+        <v>182.45</v>
+      </c>
+      <c r="K10" s="7">
+        <v>565.97</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1161.19</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1610.82</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1867.54</v>
+      </c>
+      <c r="O10" s="7">
+        <v>2604.86</v>
+      </c>
+      <c r="P10" s="7">
+        <v>4406.09</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>5481.19</v>
+      </c>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3">
+        <v>134</v>
+      </c>
+      <c r="F11" s="3">
+        <v>512</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.003</v>
+      </c>
+      <c r="I11" s="7">
+        <v>323.919</v>
+      </c>
+      <c r="J11" s="7">
+        <v>323.41</v>
+      </c>
+      <c r="K11" s="7">
+        <v>324.736</v>
+      </c>
+      <c r="L11" s="7">
+        <v>367.134</v>
+      </c>
+      <c r="M11" s="7">
+        <v>372.016</v>
+      </c>
+      <c r="N11" s="7">
+        <v>417.629</v>
+      </c>
+      <c r="O11" s="7">
+        <v>512.564</v>
+      </c>
+      <c r="P11" s="7">
+        <v>808.32</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1533.481</v>
+      </c>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
+        <v>66.052</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1244.689</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1450.23</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1626.696</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2297.468</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1615.83</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2379.99</v>
+      </c>
+      <c r="O12" s="7">
+        <v>3088.58</v>
+      </c>
+      <c r="P12" s="7">
+        <v>3246.257</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1620.14</v>
+      </c>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6.94</v>
+      </c>
+      <c r="I13" s="7">
+        <v>530.29</v>
+      </c>
+      <c r="J13" s="7">
+        <v>662.42</v>
+      </c>
+      <c r="K13" s="7">
+        <v>682.96</v>
+      </c>
+      <c r="L13" s="7">
+        <v>783.94</v>
+      </c>
+      <c r="M13" s="7">
+        <v>787.56</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1286.03</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1446.18</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1528.51</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1551.44</v>
+      </c>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3">
+        <v>299</v>
+      </c>
+      <c r="F14" s="3">
+        <v>638</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5.303</v>
+      </c>
+      <c r="I14" s="7">
+        <v>524.458</v>
+      </c>
+      <c r="J14" s="7">
+        <v>529.39</v>
+      </c>
+      <c r="K14" s="7">
+        <v>619</v>
+      </c>
+      <c r="L14" s="7">
+        <v>716.202</v>
+      </c>
+      <c r="M14" s="7">
+        <v>718.558</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3367.162</v>
+      </c>
+      <c r="O14" s="7">
+        <v>2757.682</v>
+      </c>
+      <c r="P14" s="7">
+        <v>2797.38</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>31600.479</v>
+      </c>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
+        <v>37.418</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2909.688</v>
+      </c>
+      <c r="J15" s="7">
+        <v>8407.302</v>
+      </c>
+      <c r="K15" s="7">
+        <v>68780.48</v>
+      </c>
+      <c r="L15" s="7">
+        <v>37898.538</v>
+      </c>
+      <c r="M15" s="7">
+        <v>33202.76</v>
+      </c>
+      <c r="N15" s="7">
+        <v>41790.128</v>
+      </c>
+      <c r="O15" s="7">
+        <v>35364.42</v>
+      </c>
+      <c r="P15" s="7">
+        <v>39209.19</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>43849.744</v>
+      </c>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8.37</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1067.74</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1960.03</v>
+      </c>
+      <c r="K16" s="7">
+        <v>6611.69</v>
+      </c>
+      <c r="L16" s="7">
+        <v>7959.84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10761.01</v>
+      </c>
+      <c r="N16" s="7">
+        <v>16310.54</v>
+      </c>
+      <c r="O16" s="7">
+        <v>18355.62</v>
+      </c>
+      <c r="P16" s="7">
+        <v>26150.22</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>34377.03</v>
+      </c>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3">
+        <v>359</v>
+      </c>
+      <c r="F17" s="3">
+        <v>984</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3.86</v>
+      </c>
+      <c r="I17" s="7">
+        <v>582.171</v>
+      </c>
+      <c r="J17" s="7">
+        <v>584.424</v>
+      </c>
+      <c r="K17" s="7">
+        <v>590.065</v>
+      </c>
+      <c r="L17" s="7">
+        <v>654.99</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1261.914</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2541.62</v>
+      </c>
+      <c r="O17" s="7">
+        <v>2242.86</v>
+      </c>
+      <c r="P17" s="7">
+        <v>5815.793</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>136322.758</v>
+      </c>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="7">
+        <v>26.945</v>
+      </c>
+      <c r="I18" s="7">
+        <v>22301.63</v>
+      </c>
+      <c r="J18" s="7">
+        <v>37812.939</v>
+      </c>
+      <c r="K18" s="7">
+        <v>67214.749</v>
+      </c>
+      <c r="L18" s="7">
+        <v>144154.566</v>
+      </c>
+      <c r="M18" s="7">
+        <v>172954.722</v>
+      </c>
+      <c r="N18" s="7">
+        <v>162188.549</v>
+      </c>
+      <c r="O18" s="7">
+        <v>162940.624</v>
+      </c>
+      <c r="P18" s="7">
+        <v>161432.433</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>144968.54</v>
+      </c>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6.42</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2935.61</v>
+      </c>
+      <c r="J19" s="7">
+        <v>8543.87</v>
+      </c>
+      <c r="K19" s="7">
+        <v>12198.79</v>
+      </c>
+      <c r="L19" s="7">
+        <v>23072.54</v>
+      </c>
+      <c r="M19" s="7">
+        <v>54028.73</v>
+      </c>
+      <c r="N19" s="7">
+        <v>60275.67</v>
+      </c>
+      <c r="O19" s="7">
+        <v>67392.39</v>
+      </c>
+      <c r="P19" s="7">
+        <v>141537.19</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>139031</v>
+      </c>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="1"/>
+      <c r="C25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>96.83</v>
+      </c>
+      <c r="E26" s="7">
+        <v>182.45</v>
+      </c>
+      <c r="F26" s="7">
+        <v>565.97</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1161.19</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1610.82</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1867.54</v>
+      </c>
+      <c r="J26" s="7">
+        <v>2604.86</v>
+      </c>
+      <c r="K26" s="7">
+        <v>4406.09</v>
+      </c>
+      <c r="L26" s="7">
+        <v>5481.19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>530.29</v>
+      </c>
+      <c r="E27" s="7">
+        <v>662.42</v>
+      </c>
+      <c r="F27" s="7">
+        <v>682.96</v>
+      </c>
+      <c r="G27" s="7">
+        <v>906.217</v>
+      </c>
+      <c r="H27" s="7">
+        <v>787.56</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1286.03</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1446.18</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1528.51</v>
+      </c>
+      <c r="L27" s="7">
+        <v>1551.44</v>
+      </c>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1067.74</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1960.03</v>
+      </c>
+      <c r="F28" s="7">
+        <v>6611.69</v>
+      </c>
+      <c r="G28" s="7">
+        <v>7959.84</v>
+      </c>
+      <c r="H28" s="7">
+        <v>10761.01</v>
+      </c>
+      <c r="I28" s="7">
+        <v>16310.54</v>
+      </c>
+      <c r="J28" s="7">
+        <v>18355.62</v>
+      </c>
+      <c r="K28" s="7">
+        <v>26150.22</v>
+      </c>
+      <c r="L28" s="7">
+        <v>34377.03</v>
+      </c>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="4">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2935.61</v>
+      </c>
+      <c r="E29" s="7">
+        <v>8543.87</v>
+      </c>
+      <c r="F29" s="7">
+        <v>12198.79</v>
+      </c>
+      <c r="G29" s="7">
+        <v>24536.718</v>
+      </c>
+      <c r="H29" s="7">
+        <v>54028.73</v>
+      </c>
+      <c r="I29" s="7">
+        <v>60275.67</v>
+      </c>
+      <c r="J29" s="7">
+        <v>67392.39</v>
+      </c>
+      <c r="K29" s="7">
+        <v>141537.19</v>
+      </c>
+      <c r="L29" s="7">
+        <v>139031</v>
+      </c>
+    </row>
+    <row r="30" ht="20.4" spans="2:2">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="9"/>
+      <c r="D47">
+        <v>160</v>
+      </c>
+      <c r="E47" s="7">
+        <v>2.635</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48">
+        <v>512</v>
+      </c>
+      <c r="E48" s="7">
+        <v>5.217</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49">
+        <v>638</v>
+      </c>
+      <c r="E49" s="7">
+        <v>8.215</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50">
+        <v>984</v>
+      </c>
+      <c r="E50" s="7">
+        <v>6.132</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="59" ht="20.4" spans="2:2">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="2:21">
+      <c r="B63" s="10"/>
+      <c r="C63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" ht="17" spans="2:21">
+      <c r="B64" s="11"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21">
+      <c r="B65" s="15"/>
+      <c r="C65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="7">
+        <v>582.171</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7">
+        <v>584.424</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="7">
+        <v>590.065</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="7">
+        <v>654.99</v>
+      </c>
+      <c r="K65" s="5">
+        <v>2</v>
+      </c>
+      <c r="L65" s="7">
+        <v>1261.914</v>
+      </c>
+      <c r="M65" s="5">
+        <v>2</v>
+      </c>
+      <c r="N65" s="7">
+        <v>2746.107</v>
+      </c>
+      <c r="O65" s="5">
+        <v>4</v>
+      </c>
+      <c r="P65" s="7">
+        <v>2242.86</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>4</v>
+      </c>
+      <c r="R65" s="7">
+        <v>5815.793</v>
+      </c>
+      <c r="S65" s="18">
+        <v>8</v>
+      </c>
+      <c r="T65" s="7">
+        <v>136322.758</v>
+      </c>
+      <c r="U65" s="5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21">
+      <c r="B66" s="15"/>
+      <c r="C66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="7">
+        <v>22301.63</v>
+      </c>
+      <c r="E66" s="5">
+        <v>32</v>
+      </c>
+      <c r="F66" s="7">
+        <v>37812.939</v>
+      </c>
+      <c r="G66" s="5">
+        <v>64</v>
+      </c>
+      <c r="H66" s="7">
+        <v>67214.749</v>
+      </c>
+      <c r="I66" s="5">
+        <v>192</v>
+      </c>
+      <c r="J66" s="7">
+        <v>144154.566</v>
+      </c>
+      <c r="K66" s="5">
+        <v>256</v>
+      </c>
+      <c r="L66" s="7">
+        <v>172954.722</v>
+      </c>
+      <c r="M66" s="5">
+        <v>768</v>
+      </c>
+      <c r="N66" s="7">
+        <v>162188.549</v>
+      </c>
+      <c r="O66" s="5">
+        <v>768</v>
+      </c>
+      <c r="P66" s="7">
+        <v>162940.624</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>768</v>
+      </c>
+      <c r="R66" s="7">
+        <v>161432.433</v>
+      </c>
+      <c r="S66" s="7">
+        <v>768</v>
+      </c>
+      <c r="T66" s="7">
+        <v>144968.54</v>
+      </c>
+      <c r="U66" s="5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="4:20">
+      <c r="D67" s="13"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="13"/>
+    </row>
+    <row r="68" spans="4:20">
+      <c r="D68" s="13"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="13"/>
+    </row>
+    <row r="71" spans="3:21">
+      <c r="C71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="7">
+        <v>582.171</v>
+      </c>
+      <c r="E71" s="7">
+        <v>584.424</v>
+      </c>
+      <c r="F71" s="7">
+        <v>590.065</v>
+      </c>
+      <c r="G71" s="7">
+        <v>654.99</v>
+      </c>
+      <c r="H71" s="7">
+        <v>1261.914</v>
+      </c>
+      <c r="I71" s="7">
+        <v>2746.107</v>
+      </c>
+      <c r="J71" s="7">
+        <v>2242.86</v>
+      </c>
+      <c r="K71" s="7">
+        <v>5815.793</v>
+      </c>
+      <c r="L71" s="7">
+        <v>22301.63</v>
+      </c>
+      <c r="M71" s="7">
+        <v>37812.939</v>
+      </c>
+      <c r="N71" s="7">
+        <v>67214.749</v>
+      </c>
+      <c r="O71" s="7">
+        <v>136322.758</v>
+      </c>
+      <c r="P71" s="7">
+        <v>144154.566</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>144968.54</v>
+      </c>
+      <c r="R71" s="7">
+        <v>161432.433</v>
+      </c>
+      <c r="S71" s="7">
+        <v>162188.549</v>
+      </c>
+      <c r="T71" s="7">
+        <v>162940.624</v>
+      </c>
+      <c r="U71" s="7">
+        <v>172954.722</v>
+      </c>
+    </row>
+    <row r="72" ht="17" spans="3:21">
+      <c r="C72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K72" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R72" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" ht="20.4" spans="2:2">
+      <c r="B94" s="8"/>
+    </row>
+    <row r="96" spans="2:13">
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+    </row>
+    <row r="97" spans="2:13">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="2:13">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="2:13">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/performance/experiment-results-new.xlsx
+++ b/test/performance/experiment-results-new.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31900" windowHeight="16760" activeTab="2"/>
+    <workbookView windowWidth="28260" windowHeight="12480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="summarized" sheetId="2" r:id="rId2"/>
     <sheet name="18-ops" sheetId="3" r:id="rId3"/>
+    <sheet name="optimized 18-ops" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="90">
   <si>
     <t>Example</t>
   </si>
@@ -249,6 +250,57 @@
   <si>
     <t>768(10op)</t>
   </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Github Stars/Forks</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>41.5k/4.4k</t>
+  </si>
+  <si>
+    <t>https://github.com/getsentry/sentry</t>
+  </si>
+  <si>
+    <t>49/41</t>
+  </si>
+  <si>
+    <t>https://github.com/opsgenie/opsgenie-python-sdk</t>
+  </si>
+  <si>
+    <t>2.1k/720</t>
+  </si>
+  <si>
+    <t>https://github.com/moshowgame/SpringBootCodeGenerator</t>
+  </si>
+  <si>
+    <t>514/98</t>
+  </si>
+  <si>
+    <t>https://github.com/madrilene/eleventy-excellent</t>
+  </si>
+  <si>
+    <t>1o</t>
+  </si>
+  <si>
+    <t>2o</t>
+  </si>
+  <si>
+    <t>3o</t>
+  </si>
+  <si>
+    <t>4o</t>
+  </si>
+  <si>
+    <t>num_o</t>
+  </si>
 </sst>
 </file>
 
@@ -261,12 +313,26 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,14 +349,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,16 +823,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,121 +838,160 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -905,22 +999,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -929,41 +1014,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2212,6 +2273,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{7cb7dff8-3c4f-4fb0-863f-d2d437a19ac3}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3383,6 +3449,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{ffcf74b4-2eb5-4eac-b889-d8c4ca9172a8}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3390,6 +3461,2311 @@
     </a:solidFill>
     <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$G$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$G$18:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>96.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>565.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1161.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1610.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1867.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2604.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4406.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5481.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$G$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$G$19:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>53.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$G$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$G$20:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>530.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>662.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>682.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>906.217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>787.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1286.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1446.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1528.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1551.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$G$17:$O$17</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$G$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>510.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>539.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>562.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>542.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>505.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>441.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="246"/>
+        <c:overlap val="-28"/>
+        <c:axId val="880024055"/>
+        <c:axId val="541404429"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="880024055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541404429"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="541404429"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="880024055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AB$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AC$10:$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AC$11:$AK$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>96.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>565.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1161.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1610.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1867.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2604.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4406.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5481.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AB$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AC$10:$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AC$12:$AK$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>53.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AB$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AC$10:$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AC$13:$AK$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>530.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>662.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>682.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>906.217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>787.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1286.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1446.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1528.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1551.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AB$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AC$10:$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AC$14:$AK$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>510.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>539.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>562.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>542.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>505.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>441.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AB$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AC$10:$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AC$15:$AK$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1067.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1960.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6611.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7959.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10761.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16310.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18355.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26150.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34377.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AB$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AC$10:$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AC$16:$AK$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>700.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>714.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>752.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>775.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>809.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>899.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1036.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1066.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AB$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AC$10:$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AC$17:$AK$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2935.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8543.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12198.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24536.718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54028.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60275.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67392.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141537.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AB$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AC$10:$AK$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AC$18:$AK$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>936.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>985.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1205.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1282.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1424.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1795.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1767.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2041.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2160.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="246"/>
+        <c:overlap val="-28"/>
+        <c:axId val="158027248"/>
+        <c:axId val="305389957"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="158027248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305389957"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="305389957"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="158027248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$C$39:$K$39</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$C$40:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>53.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$C$39:$K$39</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$C$41:$K$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>510.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>539.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>562.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>542.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>505.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>441.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$C$39:$K$39</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$C$42:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>700.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>714.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>752.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>775.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>809.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>899.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1036.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1066.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$C$39:$K$39</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$C$43:$K$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>936.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>985.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1205.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1282.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1424.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1795.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1767.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2041.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2160.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="671007467"/>
+        <c:axId val="622038164"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="671007467"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622038164"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="622038164"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671007467"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+          <a:alpha val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3571,6 +5947,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10055">
   <cs:axisTitle>
@@ -5122,6 +7618,1532 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10055">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10001">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10055">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5744,6 +9766,101 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205105</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>173990</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12566650" y="1637030"/>
+        <a:ext cx="4845685" cy="2885440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="20486370" y="4257675"/>
+        <a:ext cx="4851400" cy="2875280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>319405</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>356235</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8" descr="7b0a202020202263686172745265734964223a20223230343638363533220a7d0a"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1775460" y="9325610"/>
+        <a:ext cx="6087745" cy="3939540"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6731,6 +10848,250 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="WPS">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4874CB"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EE822F"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="F2BA02"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="75BD42"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="30C0B4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="E54C5E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0026E5"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="7E1FAD"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="WPS">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="WPS">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumOff val="17500"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-2520000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-4200000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+        </a:gradFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="phClr">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -6755,53 +11116,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" ht="34" spans="1:14">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="20"/>
       <c r="N2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -6834,10 +11195,10 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <v>22</v>
       </c>
       <c r="C4">
@@ -6872,8 +11233,8 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5">
         <v>4.695731</v>
       </c>
@@ -6906,8 +11267,8 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6">
         <v>4.877195</v>
       </c>
@@ -6943,10 +11304,10 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <v>98</v>
       </c>
       <c r="C7">
@@ -6981,8 +11342,8 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8">
         <v>9.207653</v>
       </c>
@@ -7015,8 +11376,8 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9">
         <v>9.449012</v>
       </c>
@@ -7049,10 +11410,10 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <v>75</v>
       </c>
       <c r="C10">
@@ -7084,8 +11445,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="20"/>
       <c r="C11">
         <v>7.463528</v>
       </c>
@@ -7115,8 +11476,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="22"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="20"/>
       <c r="C12">
         <v>7.725575</v>
       </c>
@@ -7146,10 +11507,10 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <v>132</v>
       </c>
       <c r="C13">
@@ -7181,8 +11542,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14">
         <v>8.282757</v>
       </c>
@@ -7212,8 +11573,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15">
         <v>8.366628</v>
       </c>
@@ -7243,10 +11604,10 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <v>63</v>
       </c>
       <c r="C16">
@@ -7278,8 +11639,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17">
         <v>7.612231</v>
       </c>
@@ -7309,8 +11670,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18">
         <v>7.090666</v>
       </c>
@@ -7369,7 +11730,7 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="121" topLeftCell="A14" workbookViewId="0">
+    <sheetView zoomScale="121" zoomScaleNormal="121" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -7386,54 +11747,54 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" customFormat="1" ht="34" spans="1:11">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" customFormat="1" spans="1:11">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -7460,7 +11821,7 @@
       </c>
     </row>
     <row r="4" customFormat="1" ht="17" spans="1:11">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -7495,7 +11856,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" ht="17" spans="1:11">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -7530,7 +11891,7 @@
       </c>
     </row>
     <row r="6" ht="34" spans="1:11">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -7565,7 +11926,7 @@
       </c>
     </row>
     <row r="7" ht="17" spans="1:11">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -7600,7 +11961,7 @@
       </c>
     </row>
     <row r="8" ht="17" spans="1:11">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B8">
@@ -7635,134 +11996,134 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" ht="34" spans="1:11">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="19"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>8</v>
       </c>
@@ -7792,7 +12153,7 @@
       </c>
     </row>
     <row r="25" ht="17" spans="1:11">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B25">
@@ -7827,7 +12188,7 @@
       </c>
     </row>
     <row r="26" ht="17" spans="1:11">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B26">
@@ -7862,7 +12223,7 @@
       </c>
     </row>
     <row r="27" ht="34" spans="1:11">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B27">
@@ -7897,7 +12258,7 @@
       </c>
     </row>
     <row r="28" ht="17" spans="1:11">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B28">
@@ -7932,7 +12293,7 @@
       </c>
     </row>
     <row r="29" ht="17" spans="1:11">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B29">
@@ -7994,8 +12355,8 @@
   <sheetPr/>
   <dimension ref="B2:AL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="R85" sqref="R85"/>
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:U66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -8034,799 +12395,799 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="17" spans="2:18">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="14"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>131</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>160</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="2">
         <v>1.222</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="2">
         <v>29.689</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="2">
         <v>30.57</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="2">
         <v>31.58</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="2">
         <v>32.847</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="2">
         <v>113.5</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="2">
         <v>64.219</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="2">
         <v>91.54</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="2">
         <v>680.996</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="2">
         <v>5417.181</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="2">
         <v>14.768</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="2">
         <v>681.971</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="2">
         <v>810.64</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="2">
         <v>2300.233</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="2">
         <v>8078.74</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="2">
         <v>8184.42</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="2">
         <v>8122.547</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="2">
         <v>8875.637</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="2">
         <v>8263.789</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="2">
         <v>5879.29</v>
       </c>
-      <c r="R9" s="14"/>
+      <c r="R9" s="20"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="2">
         <v>2.11</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="2">
         <v>96.83</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="2">
         <v>182.45</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="2">
         <v>565.97</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="2">
         <v>1161.19</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="2">
         <v>1610.82</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="2">
         <v>1867.54</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="2">
         <v>2604.86</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="2">
         <v>4406.09</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="2">
         <v>5481.19</v>
       </c>
-      <c r="R10" s="14"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>134</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>512</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="2">
         <v>2.003</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="2">
         <v>323.919</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="2">
         <v>323.41</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="2">
         <v>324.736</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="2">
         <v>367.134</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="2">
         <v>372.016</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="2">
         <v>417.629</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="2">
         <v>512.564</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="2">
         <v>808.32</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="2">
         <v>1533.481</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="2">
         <v>66.052</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="2">
         <v>1244.689</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="2">
         <v>1450.23</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="2">
         <v>1626.696</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="2">
         <v>2297.468</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="2">
         <v>1615.83</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="2">
         <v>2379.99</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="2">
         <v>3088.58</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="2">
         <v>3246.257</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="2">
         <v>1620.14</v>
       </c>
-      <c r="R12" s="14"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="2">
         <v>6.94</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="2">
         <v>530.29</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="2">
         <v>662.42</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="2">
         <v>682.96</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="2">
         <v>783.94</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="2">
         <v>787.56</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="2">
         <v>1286.03</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="2">
         <v>1446.18</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="2">
         <v>1528.51</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="2">
         <v>1551.44</v>
       </c>
-      <c r="R13" s="14"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>299</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>638</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="2">
         <v>5.303</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="2">
         <v>524.458</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="2">
         <v>529.39</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="2">
         <v>619</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="2">
         <v>716.202</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="2">
         <v>718.558</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="2">
         <v>3367.162</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="2">
         <v>2757.682</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="2">
         <v>2797.38</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="2">
         <v>31600.479</v>
       </c>
-      <c r="R14" s="14"/>
+      <c r="R14" s="20"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="2">
         <v>37.418</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="2">
         <v>2909.688</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="2">
         <v>8407.302</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="2">
         <v>68780.48</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="2">
         <v>37898.538</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="2">
         <v>33202.76</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="2">
         <v>41790.128</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="2">
         <v>35364.42</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="2">
         <v>39209.19</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="2">
         <v>43849.744</v>
       </c>
-      <c r="R15" s="14"/>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="2">
         <v>8.37</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="2">
         <v>1067.74</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="2">
         <v>1960.03</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="2">
         <v>6611.69</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="2">
         <v>7959.84</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="2">
         <v>10761.01</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="2">
         <v>16310.54</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="2">
         <v>18355.62</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="2">
         <v>26150.22</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="2">
         <v>34377.03</v>
       </c>
-      <c r="R16" s="14"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>359</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>984</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="2">
         <v>3.86</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="2">
         <v>582.171</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="2">
         <v>584.424</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="2">
         <v>590.065</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="2">
         <v>654.99</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="2">
         <v>1261.914</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="2">
         <v>2541.62</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="2">
         <v>2242.86</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="2">
         <v>5815.793</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="2">
         <v>136322.758</v>
       </c>
-      <c r="R17" s="14"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="2">
         <v>26.945</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="2">
         <v>22301.63</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="2">
         <v>37812.939</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="2">
         <v>67214.749</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="2">
         <v>144154.566</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="2">
         <v>172954.722</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="2">
         <v>162188.549</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="2">
         <v>162940.624</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="2">
         <v>161432.433</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="2">
         <v>144968.54</v>
       </c>
-      <c r="R18" s="14"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="2">
         <v>6.42</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="2">
         <v>2935.61</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="2">
         <v>8543.87</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="2">
         <v>12198.79</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="2">
         <v>23072.54</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="2">
         <v>54028.73</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="2">
         <v>60275.67</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="2">
         <v>67392.39</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="2">
         <v>141537.19</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="2">
         <v>139031</v>
       </c>
-      <c r="R19" s="14"/>
+      <c r="R19" s="20"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="1"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="1"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="1"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="1"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:12">
-      <c r="C26" s="6">
+      <c r="C26" s="16">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="2">
         <v>96.83</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="2">
         <v>182.45</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="2">
         <v>565.97</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="2">
         <v>1161.19</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="2">
         <v>1610.82</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="2">
         <v>1867.54</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="2">
         <v>2604.86</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="2">
         <v>4406.09</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="2">
         <v>5481.19</v>
       </c>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="6">
+      <c r="C27" s="16">
         <v>2</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="2">
         <v>530.29</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="2">
         <v>662.42</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="2">
         <v>682.96</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="2">
         <v>906.217</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="2">
         <v>787.56</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="2">
         <v>1286.03</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="2">
         <v>1446.18</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="2">
         <v>1528.51</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="2">
         <v>1551.44</v>
       </c>
-      <c r="M27" s="13"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="4">
+      <c r="C28" s="15">
         <v>3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="2">
         <v>1067.74</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="2">
         <v>1960.03</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="2">
         <v>6611.69</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="2">
         <v>7959.84</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="2">
         <v>10761.01</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="2">
         <v>16310.54</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="2">
         <v>18355.62</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="2">
         <v>26150.22</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="2">
         <v>34377.03</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="4">
+      <c r="C29" s="15">
         <v>4</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="2">
         <v>2935.61</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="2">
         <v>8543.87</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="2">
         <v>12198.79</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="2">
         <v>24536.718</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="2">
         <v>54028.73</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="2">
         <v>60275.67</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="2">
         <v>67392.39</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="2">
         <v>141537.19</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="2">
         <v>139031</v>
       </c>
     </row>
     <row r="30" ht="20.4" spans="2:2">
-      <c r="B30" s="8"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="9"/>
+      <c r="B34" s="18"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="9"/>
+      <c r="B35" s="18"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="9"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="9"/>
+      <c r="B42" s="18"/>
     </row>
     <row r="46" spans="4:5">
       <c r="D46" t="s">
@@ -8837,11 +13198,11 @@
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="9"/>
+      <c r="B47" s="18"/>
       <c r="D47">
         <v>160</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="2">
         <v>2.635</v>
       </c>
     </row>
@@ -8849,7 +13210,7 @@
       <c r="D48">
         <v>512</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="2">
         <v>5.217</v>
       </c>
     </row>
@@ -8857,7 +13218,7 @@
       <c r="D49">
         <v>638</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="2">
         <v>8.215</v>
       </c>
     </row>
@@ -8865,484 +13226,484 @@
       <c r="D50">
         <v>984</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="2">
         <v>6.132</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="9"/>
+      <c r="B57" s="18"/>
     </row>
     <row r="59" ht="20.4" spans="2:2">
-      <c r="B59" s="8"/>
+      <c r="B59" s="17"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="9"/>
+      <c r="B61" s="18"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="9"/>
+      <c r="B62" s="18"/>
     </row>
     <row r="63" spans="2:21">
-      <c r="B63" s="10"/>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5" t="s">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
+      <c r="I63" s="1"/>
+      <c r="J63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5" t="s">
+      <c r="K63" s="1"/>
+      <c r="L63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5" t="s">
+      <c r="M63" s="1"/>
+      <c r="N63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5" t="s">
+      <c r="O63" s="1"/>
+      <c r="P63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5" t="s">
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5" t="s">
+      <c r="S63" s="1"/>
+      <c r="T63" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U63" s="5"/>
+      <c r="U63" s="1"/>
     </row>
     <row r="64" ht="17" spans="2:21">
-      <c r="B64" s="11"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="7" t="s">
+      <c r="B64" s="19"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L64" s="7" t="s">
+      <c r="L64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N64" s="7" t="s">
+      <c r="N64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O64" s="5" t="s">
+      <c r="O64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="P64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q64" s="5" t="s">
+      <c r="Q64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R64" s="7" t="s">
+      <c r="R64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S64" s="5" t="s">
+      <c r="S64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T64" s="7" t="s">
+      <c r="T64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U64" s="5" t="s">
+      <c r="U64" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="2:21">
-      <c r="B65" s="15"/>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="2">
         <v>582.171</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="1">
         <v>1</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="2">
         <v>584.424</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="1">
         <v>1</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="2">
         <v>590.065</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="1">
         <v>1</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="2">
         <v>654.99</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="1">
         <v>2</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="2">
         <v>1261.914</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="1">
         <v>2</v>
       </c>
-      <c r="N65" s="7">
+      <c r="N65" s="2">
         <v>2746.107</v>
       </c>
-      <c r="O65" s="5">
+      <c r="O65" s="1">
         <v>4</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="2">
         <v>2242.86</v>
       </c>
-      <c r="Q65" s="5">
+      <c r="Q65" s="1">
         <v>4</v>
       </c>
-      <c r="R65" s="7">
+      <c r="R65" s="2">
         <v>5815.793</v>
       </c>
-      <c r="S65" s="18">
+      <c r="S65" s="3">
         <v>8</v>
       </c>
-      <c r="T65" s="7">
+      <c r="T65" s="2">
         <v>136322.758</v>
       </c>
-      <c r="U65" s="5">
+      <c r="U65" s="1">
         <v>256</v>
       </c>
     </row>
     <row r="66" spans="2:21">
-      <c r="B66" s="15"/>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="2">
         <v>22301.63</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="1">
         <v>32</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="2">
         <v>37812.939</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="1">
         <v>64</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="2">
         <v>67214.749</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="1">
         <v>192</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="2">
         <v>144154.566</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="1">
         <v>256</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="2">
         <v>172954.722</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="1">
         <v>768</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N66" s="2">
         <v>162188.549</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="1">
         <v>768</v>
       </c>
-      <c r="P66" s="7">
+      <c r="P66" s="2">
         <v>162940.624</v>
       </c>
-      <c r="Q66" s="5">
+      <c r="Q66" s="1">
         <v>768</v>
       </c>
-      <c r="R66" s="7">
+      <c r="R66" s="2">
         <v>161432.433</v>
       </c>
-      <c r="S66" s="7">
+      <c r="S66" s="2">
         <v>768</v>
       </c>
-      <c r="T66" s="7">
+      <c r="T66" s="2">
         <v>144968.54</v>
       </c>
-      <c r="U66" s="5">
+      <c r="U66" s="1">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="4:20">
-      <c r="D67" s="13"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="13"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="7"/>
     </row>
     <row r="68" spans="4:20">
-      <c r="D68" s="13"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="13"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="7"/>
     </row>
     <row r="71" spans="3:21">
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="2">
         <v>582.171</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="2">
         <v>584.424</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="2">
         <v>590.065</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="2">
         <v>654.99</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="2">
         <v>1261.914</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="2">
         <v>2746.107</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="2">
         <v>2242.86</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="2">
         <v>5815.793</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="2">
         <v>22301.63</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M71" s="2">
         <v>37812.939</v>
       </c>
-      <c r="N71" s="7">
+      <c r="N71" s="2">
         <v>67214.749</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O71" s="2">
         <v>136322.758</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="2">
         <v>144154.566</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q71" s="2">
         <v>144968.54</v>
       </c>
-      <c r="R71" s="7">
+      <c r="R71" s="2">
         <v>161432.433</v>
       </c>
-      <c r="S71" s="7">
+      <c r="S71" s="2">
         <v>162188.549</v>
       </c>
-      <c r="T71" s="7">
+      <c r="T71" s="2">
         <v>162940.624</v>
       </c>
-      <c r="U71" s="7">
+      <c r="U71" s="2">
         <v>172954.722</v>
       </c>
     </row>
     <row r="72" ht="17" spans="3:21">
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="J72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K72" s="18" t="s">
+      <c r="K72" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L72" s="5" t="s">
+      <c r="L72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="M72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="N72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="O72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P72" s="5" t="s">
+      <c r="P72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q72" s="5" t="s">
+      <c r="Q72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R72" s="18" t="s">
+      <c r="R72" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S72" s="5" t="s">
+      <c r="S72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T72" s="5" t="s">
+      <c r="T72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U72" s="5" t="s">
+      <c r="U72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="94" ht="20.4" spans="2:2">
-      <c r="B94" s="8"/>
+      <c r="B94" s="17"/>
     </row>
     <row r="96" spans="2:13">
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
     </row>
     <row r="97" spans="2:13">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
     </row>
     <row r="98" spans="2:13">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
     </row>
     <row r="101" spans="2:13">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -9379,4 +13740,1663 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:AQ46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" topLeftCell="J27" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="2" max="3" width="12.8173076923077" customWidth="1"/>
+    <col min="4" max="4" width="16.3365384615385" customWidth="1"/>
+    <col min="5" max="5" width="11.5288461538462" customWidth="1"/>
+    <col min="6" max="6" width="13.1346153846154" customWidth="1"/>
+    <col min="7" max="7" width="12.0192307692308" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13.2884615384615" customWidth="1"/>
+    <col min="10" max="10" width="12.3365384615385" customWidth="1"/>
+    <col min="11" max="11" width="12.9711538461538" customWidth="1"/>
+    <col min="12" max="12" width="13.4519230769231" customWidth="1"/>
+    <col min="13" max="13" width="12.0096153846154" customWidth="1"/>
+    <col min="14" max="14" width="11.0480769230769" customWidth="1"/>
+    <col min="15" max="15" width="11.6923076923077" customWidth="1"/>
+    <col min="31" max="35" width="9.69230769230769"/>
+    <col min="36" max="37" width="10.7692307692308"/>
+    <col min="40" max="40" width="13.7788461538462" customWidth="1"/>
+    <col min="41" max="41" width="14.2884615384615" customWidth="1"/>
+    <col min="42" max="42" width="18.2692307692308" customWidth="1"/>
+    <col min="43" max="43" width="59.2980769230769" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:43">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:43">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>131</v>
+      </c>
+      <c r="E3" s="1">
+        <v>160</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30.59</v>
+      </c>
+      <c r="H3" s="2">
+        <v>29.45</v>
+      </c>
+      <c r="I3" s="2">
+        <v>32.3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>31.65</v>
+      </c>
+      <c r="K3" s="2">
+        <v>32.66</v>
+      </c>
+      <c r="L3" s="2">
+        <v>34.36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>66.75</v>
+      </c>
+      <c r="N3" s="2">
+        <v>67.31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>243.38</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2">
+        <v>127.25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>275.94</v>
+      </c>
+      <c r="I4" s="2">
+        <v>455.31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>480.08</v>
+      </c>
+      <c r="K4" s="2">
+        <v>521.01</v>
+      </c>
+      <c r="L4" s="2">
+        <v>664.25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>548.94</v>
+      </c>
+      <c r="N4" s="11">
+        <v>874.97</v>
+      </c>
+      <c r="O4" s="2">
+        <v>321.61</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:43">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2">
+        <v>53.88</v>
+      </c>
+      <c r="H5" s="2">
+        <v>79.98</v>
+      </c>
+      <c r="I5" s="2">
+        <v>115.99</v>
+      </c>
+      <c r="J5" s="2">
+        <v>114.38</v>
+      </c>
+      <c r="K5" s="2">
+        <v>179.57</v>
+      </c>
+      <c r="L5" s="2">
+        <v>233.32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>262.25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>355.94</v>
+      </c>
+      <c r="O5" s="2">
+        <v>260.14</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1">
+        <v>134</v>
+      </c>
+      <c r="E6" s="1">
+        <v>512</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2">
+        <v>340.59</v>
+      </c>
+      <c r="H6" s="2">
+        <v>341.83</v>
+      </c>
+      <c r="I6" s="2">
+        <v>337.32</v>
+      </c>
+      <c r="J6" s="2">
+        <v>381.39</v>
+      </c>
+      <c r="K6" s="2">
+        <v>367.53</v>
+      </c>
+      <c r="L6" s="2">
+        <v>383.72</v>
+      </c>
+      <c r="M6" s="2">
+        <v>390.21</v>
+      </c>
+      <c r="N6" s="2">
+        <v>387.09</v>
+      </c>
+      <c r="O6" s="2">
+        <v>432.28</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2">
+        <v>909.89</v>
+      </c>
+      <c r="H7" s="2">
+        <v>911.38</v>
+      </c>
+      <c r="I7" s="2">
+        <v>940.78</v>
+      </c>
+      <c r="J7" s="2">
+        <v>927.23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>889.93</v>
+      </c>
+      <c r="L7" s="2">
+        <v>877.58</v>
+      </c>
+      <c r="M7" s="2">
+        <v>779.98</v>
+      </c>
+      <c r="N7" s="2">
+        <v>920.24</v>
+      </c>
+      <c r="O7" s="2">
+        <v>487.89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2">
+        <v>510.12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>539.07</v>
+      </c>
+      <c r="I8" s="2">
+        <v>562.53</v>
+      </c>
+      <c r="J8" s="2">
+        <v>540.66</v>
+      </c>
+      <c r="K8" s="2">
+        <v>542.7</v>
+      </c>
+      <c r="L8" s="2">
+        <v>444.61</v>
+      </c>
+      <c r="M8" s="2">
+        <v>442.83</v>
+      </c>
+      <c r="N8" s="2">
+        <v>505.96</v>
+      </c>
+      <c r="O8" s="2">
+        <v>441.99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>299</v>
+      </c>
+      <c r="E9" s="1">
+        <v>638</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2">
+        <v>512.12</v>
+      </c>
+      <c r="H9" s="2">
+        <v>518.94</v>
+      </c>
+      <c r="I9" s="2">
+        <v>515.79</v>
+      </c>
+      <c r="J9" s="2">
+        <v>524.17</v>
+      </c>
+      <c r="K9" s="2">
+        <v>522.64</v>
+      </c>
+      <c r="L9" s="2">
+        <v>527.71</v>
+      </c>
+      <c r="M9" s="2">
+        <v>528.56</v>
+      </c>
+      <c r="N9" s="2">
+        <v>534.58</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1048.57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1127.44</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1094.53</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1140.02</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1102.94</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1132.65</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1176.67</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1200.14</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1120.4</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1123.23</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2">
+        <v>700.67</v>
+      </c>
+      <c r="H11" s="2">
+        <v>714.15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>752.48</v>
+      </c>
+      <c r="J11" s="2">
+        <v>775.91</v>
+      </c>
+      <c r="K11" s="2">
+        <v>809.02</v>
+      </c>
+      <c r="L11" s="2">
+        <v>899.68</v>
+      </c>
+      <c r="M11" s="2">
+        <v>900.68</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1036.18</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1066.37</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>96.83</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>182.45</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>565.97</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1161.19</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>1610.82</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>1867.54</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>2604.86</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>4406.09</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>5481.19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>359</v>
+      </c>
+      <c r="E12" s="1">
+        <v>984</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2">
+        <v>565.49</v>
+      </c>
+      <c r="H12" s="2">
+        <v>568.75</v>
+      </c>
+      <c r="I12" s="2">
+        <v>577.31</v>
+      </c>
+      <c r="J12" s="2">
+        <v>576.727</v>
+      </c>
+      <c r="K12" s="2">
+        <v>580.06</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1060.19</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1073.97</v>
+      </c>
+      <c r="N12" s="2">
+        <v>665.84</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2136.41</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>53.88</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>79.98</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>115.99</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>114.38</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>179.57</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>233.32</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>262.25</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>355.94</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>260.14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2276.27</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2192.13</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2261.43</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2257.1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2225.05</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2241.66</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2250.12</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2282.21</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2240.27</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>530.29</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>662.42</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>682.96</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>906.217</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>787.56</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>1286.03</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>1446.18</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>1528.51</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>1551.44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2">
+        <v>936.17</v>
+      </c>
+      <c r="H14" s="2">
+        <v>985.54</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1205.01</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1282.23</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1424.16</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1795.68</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1767.31</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2041.4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2160.02</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>510.12</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>539.07</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>562.53</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>540.66</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>542.7</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>444.61</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>442.83</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>505.96</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>441.99</v>
+      </c>
+    </row>
+    <row r="15" spans="28:37">
+      <c r="AB15" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>1067.74</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1960.03</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>6611.69</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>7959.84</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>10761.01</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>16310.54</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>18355.62</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>26150.22</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>34377.03</v>
+      </c>
+    </row>
+    <row r="16" spans="28:37">
+      <c r="AB16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>700.67</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>714.15</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>752.48</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>775.91</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>809.02</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>899.68</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>900.68</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>1036.18</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>1066.37</v>
+      </c>
+    </row>
+    <row r="17" spans="6:37">
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>2935.61</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>8543.87</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>12198.79</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>24536.718</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>54028.73</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>60275.67</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>67392.39</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>141537.19</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>139031</v>
+      </c>
+    </row>
+    <row r="18" spans="6:37">
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>96.83</v>
+      </c>
+      <c r="H18" s="2">
+        <v>182.45</v>
+      </c>
+      <c r="I18" s="2">
+        <v>565.97</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1161.19</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1610.82</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1867.54</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2604.86</v>
+      </c>
+      <c r="N18" s="2">
+        <v>4406.09</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5481.19</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>936.17</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>985.54</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>1205.01</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>1282.23</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>1424.16</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>1795.68</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>1767.31</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>2041.4</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>2160.02</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15">
+      <c r="F19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="2">
+        <v>53.88</v>
+      </c>
+      <c r="H19" s="2">
+        <v>79.98</v>
+      </c>
+      <c r="I19" s="2">
+        <v>115.99</v>
+      </c>
+      <c r="J19" s="2">
+        <v>114.38</v>
+      </c>
+      <c r="K19" s="2">
+        <v>179.57</v>
+      </c>
+      <c r="L19" s="2">
+        <v>233.32</v>
+      </c>
+      <c r="M19" s="2">
+        <v>262.25</v>
+      </c>
+      <c r="N19" s="2">
+        <v>355.94</v>
+      </c>
+      <c r="O19" s="2">
+        <v>260.14</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15">
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>530.29</v>
+      </c>
+      <c r="H20" s="2">
+        <v>662.42</v>
+      </c>
+      <c r="I20" s="2">
+        <v>682.96</v>
+      </c>
+      <c r="J20" s="2">
+        <v>906.217</v>
+      </c>
+      <c r="K20" s="2">
+        <v>787.56</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1286.03</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1446.18</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1528.51</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1551.44</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15">
+      <c r="F21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="2">
+        <v>510.12</v>
+      </c>
+      <c r="H21" s="2">
+        <v>539.07</v>
+      </c>
+      <c r="I21" s="2">
+        <v>562.53</v>
+      </c>
+      <c r="J21" s="2">
+        <v>540.66</v>
+      </c>
+      <c r="K21" s="2">
+        <v>542.7</v>
+      </c>
+      <c r="L21" s="2">
+        <v>444.61</v>
+      </c>
+      <c r="M21" s="2">
+        <v>442.83</v>
+      </c>
+      <c r="N21" s="2">
+        <v>505.96</v>
+      </c>
+      <c r="O21" s="2">
+        <v>441.99</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15">
+      <c r="F23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15">
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1067.74</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1960.03</v>
+      </c>
+      <c r="I24" s="2">
+        <v>6611.69</v>
+      </c>
+      <c r="J24" s="2">
+        <v>7959.84</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10761.01</v>
+      </c>
+      <c r="L24" s="2">
+        <v>16310.54</v>
+      </c>
+      <c r="M24" s="2">
+        <v>18355.62</v>
+      </c>
+      <c r="N24" s="2">
+        <v>26150.22</v>
+      </c>
+      <c r="O24" s="2">
+        <v>34377.03</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15">
+      <c r="F25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="2">
+        <v>700.67</v>
+      </c>
+      <c r="H25" s="2">
+        <v>714.15</v>
+      </c>
+      <c r="I25" s="2">
+        <v>752.48</v>
+      </c>
+      <c r="J25" s="2">
+        <v>775.91</v>
+      </c>
+      <c r="K25" s="2">
+        <v>809.02</v>
+      </c>
+      <c r="L25" s="2">
+        <v>899.68</v>
+      </c>
+      <c r="M25" s="2">
+        <v>900.68</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1036.18</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1066.37</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15">
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2935.61</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8543.87</v>
+      </c>
+      <c r="I26" s="2">
+        <v>12198.79</v>
+      </c>
+      <c r="J26" s="2">
+        <v>24536.718</v>
+      </c>
+      <c r="K26" s="2">
+        <v>54028.73</v>
+      </c>
+      <c r="L26" s="2">
+        <v>60275.67</v>
+      </c>
+      <c r="M26" s="2">
+        <v>67392.39</v>
+      </c>
+      <c r="N26" s="2">
+        <v>141537.19</v>
+      </c>
+      <c r="O26" s="2">
+        <v>139031</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15">
+      <c r="F27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="2">
+        <v>936.17</v>
+      </c>
+      <c r="H27" s="2">
+        <v>985.54</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1205.01</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1282.23</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1424.16</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1795.68</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1767.31</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2041.4</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2160.02</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" ht="17" spans="2:20">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="10">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4</v>
+      </c>
+      <c r="N34" s="10">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4</v>
+      </c>
+      <c r="P34" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>8</v>
+      </c>
+      <c r="R34" s="10">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <v>256</v>
+      </c>
+      <c r="T34" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>64</v>
+      </c>
+      <c r="F35" s="10">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>192</v>
+      </c>
+      <c r="H35" s="1">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1">
+        <v>256</v>
+      </c>
+      <c r="J35" s="10">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1">
+        <v>768</v>
+      </c>
+      <c r="L35" s="10">
+        <v>8</v>
+      </c>
+      <c r="M35" s="1">
+        <v>768</v>
+      </c>
+      <c r="N35" s="10">
+        <v>8</v>
+      </c>
+      <c r="O35" s="1">
+        <v>768</v>
+      </c>
+      <c r="P35" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>768</v>
+      </c>
+      <c r="R35" s="10">
+        <v>8</v>
+      </c>
+      <c r="S35" s="1">
+        <v>256</v>
+      </c>
+      <c r="T35" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2">
+        <v>53.88</v>
+      </c>
+      <c r="D40" s="2">
+        <v>79.98</v>
+      </c>
+      <c r="E40" s="2">
+        <v>115.99</v>
+      </c>
+      <c r="F40" s="2">
+        <v>114.38</v>
+      </c>
+      <c r="G40" s="2">
+        <v>179.57</v>
+      </c>
+      <c r="H40" s="2">
+        <v>233.32</v>
+      </c>
+      <c r="I40" s="2">
+        <v>262.25</v>
+      </c>
+      <c r="J40" s="2">
+        <v>355.94</v>
+      </c>
+      <c r="K40" s="2">
+        <v>260.14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2">
+        <v>510.12</v>
+      </c>
+      <c r="D41" s="2">
+        <v>539.07</v>
+      </c>
+      <c r="E41" s="2">
+        <v>562.53</v>
+      </c>
+      <c r="F41" s="2">
+        <v>540.66</v>
+      </c>
+      <c r="G41" s="2">
+        <v>542.7</v>
+      </c>
+      <c r="H41" s="2">
+        <v>444.61</v>
+      </c>
+      <c r="I41" s="2">
+        <v>442.83</v>
+      </c>
+      <c r="J41" s="2">
+        <v>505.96</v>
+      </c>
+      <c r="K41" s="2">
+        <v>441.99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="2">
+        <v>700.67</v>
+      </c>
+      <c r="D42" s="2">
+        <v>714.15</v>
+      </c>
+      <c r="E42" s="2">
+        <v>752.48</v>
+      </c>
+      <c r="F42" s="2">
+        <v>775.91</v>
+      </c>
+      <c r="G42" s="2">
+        <v>809.02</v>
+      </c>
+      <c r="H42" s="2">
+        <v>899.68</v>
+      </c>
+      <c r="I42" s="2">
+        <v>900.68</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1036.18</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1066.37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2">
+        <v>936.17</v>
+      </c>
+      <c r="D43" s="2">
+        <v>985.54</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1205.01</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1282.23</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1424.16</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1795.68</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1767.31</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2041.4</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2160.02</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AQ4" r:id="rId2" display="https://github.com/opsgenie/opsgenie-python-sdk"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/performance/experiment-results-new.xlsx
+++ b/test/performance/experiment-results-new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="12480" activeTab="3"/>
+    <workbookView windowWidth="31900" windowHeight="16760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="90">
   <si>
     <t>Example</t>
   </si>
@@ -953,7 +953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,12 +965,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -990,6 +984,9 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,9 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1011,17 +1005,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4057,6 +4045,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{6da9b8eb-2a05-47ef-9ebe-8d168d8ca3dd}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5063,6 +5056,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{b41a63e3-e8ca-4657-8e22-1adbfb2d310b}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5753,6 +5751,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{ecd1da5f-5e4f-4743-955c-6af80980bb14}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5766,6 +5769,691 @@
           <a:alpha val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AM$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AN$10:$AV$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AN$11:$AV$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>53.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>355.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>260.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AM$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AN$10:$AV$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AN$12:$AV$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>510.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>539.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>562.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>542.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>505.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>441.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AM$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AN$10:$AV$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AN$13:$AV$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>700.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>714.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>752.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>775.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>809.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>899.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1036.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1066.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AM$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'optimized 18-ops'!$AN$10:$AV$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2-ops</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4-ops</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-ops</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8-ops</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10-ops</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-ops</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14-ops</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16-ops</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18-ops</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'optimized 18-ops'!$AN$14:$AV$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>936.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>985.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1205.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1282.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1424.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1795.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1767.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2041.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2160.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="572406654"/>
+        <c:axId val="775583195"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="572406654"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="775583195"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="775583195"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572406654"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:sym typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6067,6 +6755,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10055">
   <cs:axisTitle>
@@ -9144,6 +9872,512 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10055">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10055">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9861,6 +11095,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>90170</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>211455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>208280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1" descr="7b0a202020202263686172745265734964223a20223230343638363533220a7d0a"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="38071425" y="1278255"/>
+        <a:ext cx="5581015" cy="3197225"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11092,6 +12356,250 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="WPS">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4874CB"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EE822F"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="F2BA02"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="75BD42"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="30C0B4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="E54C5E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0026E5"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="7E1FAD"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="WPS">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="WPS">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumOff val="17500"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-2520000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-4200000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+        </a:gradFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="phClr">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -11116,53 +12624,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" ht="34" spans="1:14">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="17"/>
       <c r="N2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -11195,10 +12703,10 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>22</v>
       </c>
       <c r="C4">
@@ -11233,8 +12741,8 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5">
         <v>4.695731</v>
       </c>
@@ -11267,8 +12775,8 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6">
         <v>4.877195</v>
       </c>
@@ -11304,10 +12812,10 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>98</v>
       </c>
       <c r="C7">
@@ -11342,8 +12850,8 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8">
         <v>9.207653</v>
       </c>
@@ -11376,8 +12884,8 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9">
         <v>9.449012</v>
       </c>
@@ -11410,10 +12918,10 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>75</v>
       </c>
       <c r="C10">
@@ -11445,8 +12953,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="17"/>
       <c r="C11">
         <v>7.463528</v>
       </c>
@@ -11476,8 +12984,8 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="17"/>
       <c r="C12">
         <v>7.725575</v>
       </c>
@@ -11507,10 +13015,10 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>132</v>
       </c>
       <c r="C13">
@@ -11542,8 +13050,8 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14">
         <v>8.282757</v>
       </c>
@@ -11573,8 +13081,8 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15">
         <v>8.366628</v>
       </c>
@@ -11604,10 +13112,10 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>63</v>
       </c>
       <c r="C16">
@@ -11639,8 +13147,8 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17">
         <v>7.612231</v>
       </c>
@@ -11670,8 +13178,8 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18">
         <v>7.090666</v>
       </c>
@@ -11747,54 +13255,54 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" customFormat="1" ht="34" spans="1:11">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" customFormat="1" spans="1:11">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -11821,7 +13329,7 @@
       </c>
     </row>
     <row r="4" customFormat="1" ht="17" spans="1:11">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -11856,7 +13364,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" ht="17" spans="1:11">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -11891,7 +13399,7 @@
       </c>
     </row>
     <row r="6" ht="34" spans="1:11">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -11926,7 +13434,7 @@
       </c>
     </row>
     <row r="7" ht="17" spans="1:11">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -11961,7 +13469,7 @@
       </c>
     </row>
     <row r="8" ht="17" spans="1:11">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B8">
@@ -11996,134 +13504,134 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" customFormat="1" spans="1:5">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" customFormat="1" spans="1:5">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" customFormat="1" spans="1:5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" customFormat="1" spans="1:5">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" ht="34" spans="1:11">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" t="s">
         <v>8</v>
       </c>
@@ -12153,7 +13661,7 @@
       </c>
     </row>
     <row r="25" ht="17" spans="1:11">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B25">
@@ -12188,7 +13696,7 @@
       </c>
     </row>
     <row r="26" ht="17" spans="1:11">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B26">
@@ -12223,7 +13731,7 @@
       </c>
     </row>
     <row r="27" ht="34" spans="1:11">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B27">
@@ -12258,7 +13766,7 @@
       </c>
     </row>
     <row r="28" ht="17" spans="1:11">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B28">
@@ -12293,7 +13801,7 @@
       </c>
     </row>
     <row r="29" ht="17" spans="1:11">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B29">
@@ -12395,27 +13903,27 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="17" spans="2:18">
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
@@ -12431,7 +13939,7 @@
       <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -12461,10 +13969,10 @@
       <c r="Q7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -12510,10 +14018,10 @@
       <c r="Q8" s="2">
         <v>5417.181</v>
       </c>
-      <c r="R8" s="20"/>
+      <c r="R8" s="17"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -12551,10 +14059,10 @@
       <c r="Q9" s="2">
         <v>5879.29</v>
       </c>
-      <c r="R9" s="20"/>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -12592,10 +14100,10 @@
       <c r="Q10" s="2">
         <v>5481.19</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="17"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
@@ -12641,10 +14149,10 @@
       <c r="Q11" s="2">
         <v>1533.481</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -12682,10 +14190,10 @@
       <c r="Q12" s="2">
         <v>1620.14</v>
       </c>
-      <c r="R12" s="20"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -12723,10 +14231,10 @@
       <c r="Q13" s="2">
         <v>1551.44</v>
       </c>
-      <c r="R13" s="20"/>
+      <c r="R13" s="17"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
@@ -12772,10 +14280,10 @@
       <c r="Q14" s="2">
         <v>31600.479</v>
       </c>
-      <c r="R14" s="20"/>
+      <c r="R14" s="17"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -12813,10 +14321,10 @@
       <c r="Q15" s="2">
         <v>43849.744</v>
       </c>
-      <c r="R15" s="20"/>
+      <c r="R15" s="17"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -12854,10 +14362,10 @@
       <c r="Q16" s="2">
         <v>34377.03</v>
       </c>
-      <c r="R16" s="20"/>
+      <c r="R16" s="17"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
@@ -12903,10 +14411,10 @@
       <c r="Q17" s="2">
         <v>136322.758</v>
       </c>
-      <c r="R17" s="20"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -12944,10 +14452,10 @@
       <c r="Q18" s="2">
         <v>144968.54</v>
       </c>
-      <c r="R18" s="20"/>
+      <c r="R18" s="17"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -12985,35 +14493,35 @@
       <c r="Q19" s="2">
         <v>139031</v>
       </c>
-      <c r="R19" s="20"/>
+      <c r="R19" s="17"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="13"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="13"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -13045,7 +14553,7 @@
       </c>
     </row>
     <row r="26" spans="3:12">
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <v>1</v>
       </c>
       <c r="D26" s="2">
@@ -13077,7 +14585,7 @@
       </c>
     </row>
     <row r="27" spans="3:13">
-      <c r="C27" s="16">
+      <c r="C27" s="14">
         <v>2</v>
       </c>
       <c r="D27" s="2">
@@ -13107,10 +14615,10 @@
       <c r="L27" s="2">
         <v>1551.44</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="3:13">
-      <c r="C28" s="15">
+      <c r="C28" s="8">
         <v>3</v>
       </c>
       <c r="D28" s="2">
@@ -13143,7 +14651,7 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="15">
+      <c r="C29" s="8">
         <v>4</v>
       </c>
       <c r="D29" s="2">
@@ -13175,19 +14683,19 @@
       </c>
     </row>
     <row r="30" ht="20.4" spans="2:2">
-      <c r="B30" s="17"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="18"/>
+      <c r="B34" s="16"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="18"/>
+      <c r="B35" s="16"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="18"/>
+      <c r="B39" s="16"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="18"/>
+      <c r="B42" s="16"/>
     </row>
     <row r="46" spans="4:5">
       <c r="D46" t="s">
@@ -13198,7 +14706,7 @@
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="18"/>
+      <c r="B47" s="16"/>
       <c r="D47">
         <v>160</v>
       </c>
@@ -13231,19 +14739,19 @@
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="18"/>
+      <c r="B57" s="16"/>
     </row>
     <row r="59" ht="20.4" spans="2:2">
-      <c r="B59" s="17"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="18"/>
+      <c r="B61" s="16"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="18"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" spans="2:21">
-      <c r="B63" s="19"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="1" t="s">
         <v>22</v>
       </c>
@@ -13285,7 +14793,7 @@
       <c r="U63" s="1"/>
     </row>
     <row r="64" ht="17" spans="2:21">
-      <c r="B64" s="19"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2" t="s">
         <v>54</v>
@@ -13343,7 +14851,7 @@
       </c>
     </row>
     <row r="65" spans="2:21">
-      <c r="B65" s="19"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="1" t="s">
         <v>35</v>
       </c>
@@ -13403,7 +14911,7 @@
       </c>
     </row>
     <row r="66" spans="2:21">
-      <c r="B66" s="19"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="1" t="s">
         <v>36</v>
       </c>
@@ -13463,45 +14971,45 @@
       </c>
     </row>
     <row r="67" spans="4:20">
-      <c r="D67" s="7"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="22"/>
-      <c r="T67" s="7"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="5"/>
     </row>
     <row r="68" spans="4:20">
-      <c r="D68" s="7"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="7"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="5"/>
     </row>
     <row r="71" spans="3:21">
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D71" s="2">
@@ -13560,7 +15068,7 @@
       </c>
     </row>
     <row r="72" ht="17" spans="3:21">
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -13619,91 +15127,91 @@
       </c>
     </row>
     <row r="94" ht="20.4" spans="2:2">
-      <c r="B94" s="17"/>
+      <c r="B94" s="15"/>
     </row>
     <row r="96" spans="2:13">
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
     </row>
     <row r="97" spans="2:13">
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
     </row>
     <row r="98" spans="2:13">
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
     </row>
     <row r="101" spans="2:13">
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -13745,10 +15253,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:AQ46"/>
+  <dimension ref="B2:AV46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" topLeftCell="J27" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" topLeftCell="AT3" workbookViewId="0">
+      <selection activeCell="BC24" sqref="BC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -13817,19 +15325,19 @@
       <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AM2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AP2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -13876,19 +15384,19 @@
       <c r="O3" s="2">
         <v>243.38</v>
       </c>
-      <c r="AM3" s="5">
+      <c r="AM3" s="1">
         <v>1</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AN3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AO3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="5" t="s">
+      <c r="AP3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ3" s="5" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -13921,25 +15429,25 @@
       <c r="M4" s="2">
         <v>548.94</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>874.97</v>
       </c>
       <c r="O4" s="2">
         <v>321.61</v>
       </c>
-      <c r="AM4" s="5">
+      <c r="AM4" s="1">
         <v>2</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AO4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="5" t="s">
+      <c r="AP4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ4" s="12" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -13978,19 +15486,19 @@
       <c r="O5" s="2">
         <v>260.14</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AM5" s="1">
         <v>3</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AN5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AO5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AP5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14037,19 +15545,19 @@
       <c r="O6" s="2">
         <v>432.28</v>
       </c>
-      <c r="AM6" s="5">
+      <c r="AM6" s="1">
         <v>4</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AN6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AO6" s="5" t="s">
+      <c r="AO6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AP6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -14169,7 +15677,7 @@
         <v>1048.57</v>
       </c>
     </row>
-    <row r="10" spans="2:37">
+    <row r="10" spans="2:48">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -14204,7 +15712,7 @@
       <c r="O10" s="2">
         <v>1123.23</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AB10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AC10" s="1" t="s">
@@ -14234,8 +15742,38 @@
       <c r="AK10" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="AM10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="11" spans="2:37">
+    <row r="11" spans="2:48">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -14270,7 +15808,7 @@
       <c r="O11" s="2">
         <v>1066.37</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="7">
         <v>1</v>
       </c>
       <c r="AC11" s="2">
@@ -14300,8 +15838,38 @@
       <c r="AK11" s="2">
         <v>5481.19</v>
       </c>
+      <c r="AM11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>53.88</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>79.98</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>115.99</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>114.38</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>179.57</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>233.32</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>262.25</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>355.94</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>260.14</v>
+      </c>
     </row>
-    <row r="12" spans="2:37">
+    <row r="12" spans="2:48">
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
@@ -14344,7 +15912,7 @@
       <c r="O12" s="2">
         <v>2136.41</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AB12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AC12" s="2">
@@ -14374,8 +15942,38 @@
       <c r="AK12" s="2">
         <v>260.14</v>
       </c>
+      <c r="AM12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>510.12</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>539.07</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>562.53</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>540.66</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>542.7</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>444.61</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>442.83</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>505.96</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>441.99</v>
+      </c>
     </row>
-    <row r="13" spans="2:37">
+    <row r="13" spans="2:48">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -14410,7 +16008,7 @@
       <c r="O13" s="2">
         <v>2240.27</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="7">
         <v>2</v>
       </c>
       <c r="AC13" s="2">
@@ -14440,8 +16038,38 @@
       <c r="AK13" s="2">
         <v>1551.44</v>
       </c>
+      <c r="AM13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>700.67</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>714.15</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>752.48</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>775.91</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>809.02</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>899.68</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>900.68</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>1036.18</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>1066.37</v>
+      </c>
     </row>
-    <row r="14" spans="2:37">
+    <row r="14" spans="2:48">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -14476,7 +16104,7 @@
       <c r="O14" s="2">
         <v>2160.02</v>
       </c>
-      <c r="AB14" s="5" t="s">
+      <c r="AB14" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AC14" s="2">
@@ -14506,9 +16134,39 @@
       <c r="AK14" s="2">
         <v>441.99</v>
       </c>
+      <c r="AM14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>936.17</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>985.54</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>1205.01</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>1282.23</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>1424.16</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>1795.68</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>1767.31</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>2041.4</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>2160.02</v>
+      </c>
     </row>
-    <row r="15" spans="28:37">
-      <c r="AB15" s="4">
+    <row r="15" spans="28:48">
+      <c r="AB15" s="1">
         <v>3</v>
       </c>
       <c r="AC15" s="2">
@@ -14538,9 +16196,19 @@
       <c r="AK15" s="2">
         <v>34377.03</v>
       </c>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
     </row>
-    <row r="16" spans="28:37">
-      <c r="AB16" s="5" t="s">
+    <row r="16" spans="28:48">
+      <c r="AB16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC16" s="2">
@@ -14570,9 +16238,19 @@
       <c r="AK16" s="2">
         <v>1066.37</v>
       </c>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
     </row>
-    <row r="17" spans="6:37">
-      <c r="F17" s="4" t="s">
+    <row r="17" spans="6:48">
+      <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -14602,7 +16280,7 @@
       <c r="O17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB17" s="1">
         <v>4</v>
       </c>
       <c r="AC17" s="2">
@@ -14632,9 +16310,19 @@
       <c r="AK17" s="2">
         <v>139031</v>
       </c>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
     </row>
     <row r="18" spans="6:37">
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
       <c r="G18" s="2">
@@ -14664,7 +16352,7 @@
       <c r="O18" s="2">
         <v>5481.19</v>
       </c>
-      <c r="AB18" s="5" t="s">
+      <c r="AB18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AC18" s="2">
@@ -14696,7 +16384,7 @@
       </c>
     </row>
     <row r="19" spans="6:15">
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G19" s="2">
@@ -14728,7 +16416,7 @@
       </c>
     </row>
     <row r="20" spans="6:15">
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <v>2</v>
       </c>
       <c r="G20" s="2">
@@ -14760,7 +16448,7 @@
       </c>
     </row>
     <row r="21" spans="6:15">
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G21" s="2">
@@ -14792,7 +16480,7 @@
       </c>
     </row>
     <row r="23" spans="6:15">
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -14824,7 +16512,7 @@
       </c>
     </row>
     <row r="24" spans="6:15">
-      <c r="F24" s="4">
+      <c r="F24" s="1">
         <v>3</v>
       </c>
       <c r="G24" s="2">
@@ -14856,7 +16544,7 @@
       </c>
     </row>
     <row r="25" spans="6:15">
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="2">
@@ -14888,7 +16576,7 @@
       </c>
     </row>
     <row r="26" spans="6:15">
-      <c r="F26" s="4">
+      <c r="F26" s="1">
         <v>4</v>
       </c>
       <c r="G26" s="2">
@@ -14920,7 +16608,7 @@
       </c>
     </row>
     <row r="27" spans="6:15">
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G27" s="2">
@@ -15062,7 +16750,7 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <v>4</v>
       </c>
       <c r="G34" s="1">
@@ -15074,37 +16762,37 @@
       <c r="I34" s="1">
         <v>2</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="8">
         <v>1</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="8">
         <v>1</v>
       </c>
       <c r="M34" s="1">
         <v>4</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="8">
         <v>2</v>
       </c>
       <c r="O34" s="1">
         <v>4</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="8">
         <v>2</v>
       </c>
       <c r="Q34" s="3">
         <v>8</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="8">
         <v>1</v>
       </c>
       <c r="S34" s="1">
         <v>256</v>
       </c>
-      <c r="T34" s="10">
+      <c r="T34" s="8">
         <v>4</v>
       </c>
     </row>
@@ -15121,7 +16809,7 @@
       <c r="E35" s="1">
         <v>64</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="8">
         <v>4</v>
       </c>
       <c r="G35" s="1">
@@ -15133,42 +16821,42 @@
       <c r="I35" s="1">
         <v>256</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="8">
         <v>8</v>
       </c>
       <c r="K35" s="1">
         <v>768</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="8">
         <v>8</v>
       </c>
       <c r="M35" s="1">
         <v>768</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="8">
         <v>8</v>
       </c>
       <c r="O35" s="1">
         <v>768</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="8">
         <v>8</v>
       </c>
       <c r="Q35" s="2">
         <v>768</v>
       </c>
-      <c r="R35" s="10">
+      <c r="R35" s="8">
         <v>8</v>
       </c>
       <c r="S35" s="1">
         <v>256</v>
       </c>
-      <c r="T35" s="10">
+      <c r="T35" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -15200,7 +16888,7 @@
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C40" s="2">
@@ -15232,7 +16920,7 @@
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="2">
@@ -15264,7 +16952,7 @@
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="2">
@@ -15296,7 +16984,7 @@
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C43" s="2">
@@ -15328,40 +17016,40 @@
       </c>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="26">
